--- a/release/屯包IOT控制器IO点位20231128.xlsx
+++ b/release/屯包IOT控制器IO点位20231128.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\combiner\combiner_v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\combiner\combiner_v1\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9014AF32-5FD2-4CB1-8B05-649647CADE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4001DBFB-863C-45F9-B3BE-496F12E461F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" r:id="rId1"/>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -792,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724C8529-92CA-4019-983F-574D2460742A}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/release/屯包IOT控制器IO点位20231128.xlsx
+++ b/release/屯包IOT控制器IO点位20231128.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\combiner\combiner_v1\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4001DBFB-863C-45F9-B3BE-496F12E461F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C394AF8-B43D-4229-BD8A-5139F4B8ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>输入信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,15 +210,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将2-6挪到1-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加外部下游屯包功能   增加对接合流机屯包段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加与下游游同步屯包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屯包、插包模式切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接合流机，低电平屯包、高电平插包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +586,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -696,10 +700,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -807,12 +811,12 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/release/屯包IOT控制器IO点位20231128.xlsx
+++ b/release/屯包IOT控制器IO点位20231128.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\combiner\combiner_v1\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C394AF8-B43D-4229-BD8A-5139F4B8ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3478A4-6876-48CA-8A1E-F843ED39E9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>输入信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,78 @@
   </si>
   <si>
     <t>对接合流机，低电平屯包、高电平插包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主板卡5色灯点位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常亮停止  10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常亮启动  闪烁休眠  启动20s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备故障    1s蜂鸣一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本地  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堵包           1s 蜂鸣一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂鸣器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT1_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT1_5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,9 +655,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -783,6 +855,74 @@
       </c>
       <c r="C16" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
